--- a/05/05-13/報告集計.xlsx
+++ b/05/05-13/報告集計.xlsx
@@ -1,32 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\J_SoftBankクリエイティブ\4.ExcelVBA2021改定\Sample_Data\05\05-13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wazu0\OneDrive\ドキュメント\ワークスペース\00_着手\Excel　マクロ\Sample_Data\05\05-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABE628-FF8A-4D5D-86E7-9F798BBD12D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E17394-9F78-47A3-BA3C-E03B2E60B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1860" windowWidth="15375" windowHeight="7545" xr2:uid="{CCE2F63A-A21B-44AD-BE1A-060C81A15EA6}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{CCE2F63A-A21B-44AD-BE1A-060C81A15EA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="開発部" sheetId="6" r:id="rId1"/>
+    <sheet name="総務部" sheetId="5" r:id="rId2"/>
+    <sheet name="経理部" sheetId="4" r:id="rId3"/>
+    <sheet name="営業部" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+  <si>
+    <t>営業部</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫報告</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱数（500枚×4）</t>
+    <rPh sb="0" eb="2">
+      <t>ハコスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A4コピー用紙</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4コピー用紙</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A3コピー用紙</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理部</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総務部</t>
+    <rPh sb="0" eb="2">
+      <t>ソウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発部</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,20 +133,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,9 +176,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,13 +505,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDFF8D0-20C2-4C92-95AB-E8476F9263D9}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2C7268-2936-453B-BE91-5806028C06EB}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EB57AD-7C2E-4143-A164-ED107A4E4769}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D165D12-F596-4F96-87F9-2B2836872C28}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DA2ECE-83EA-40B7-8B24-739BD639BE75}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
